--- a/src/data/excel.xlsx
+++ b/src/data/excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Piotr/PycharmProjects/gfi-vue-gantt-elastic/src/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dybapi/PycharmProjects/gfi-vue-gantt-elastic/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1ABA82-DE2B-084F-AD67-1C90EB3062F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A5F1C2-0176-E94A-BDF0-E6C41F095F20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11700" yWindow="22680" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21200" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teams" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="81">
   <si>
     <t>ID</t>
   </si>
@@ -126,141 +126,15 @@
     <t>Disaster Recovery Support and Integration</t>
   </si>
   <si>
-    <t>Apes; Milestone F</t>
-  </si>
-  <si>
-    <t>Migrate to feature branch delivery</t>
-  </si>
-  <si>
     <t>New</t>
   </si>
   <si>
-    <t>Apes; Blocked; CSME MVP; Milestone C; PI10; sprint 1; Waiting for POC</t>
-  </si>
-  <si>
-    <t>PenTesting security adjustments</t>
-  </si>
-  <si>
-    <t>Apes; Blocked; Milestone C; NothingToDoHere?</t>
-  </si>
-  <si>
-    <t>Apes; CSME MVP; Milestone C; PI10; sprint 1</t>
-  </si>
-  <si>
-    <t>Release in YAML PoC</t>
-  </si>
-  <si>
-    <t>Apes; CSME MVP; Milestone C; PI10</t>
-  </si>
-  <si>
-    <t>Release in YAML PoC - part 2</t>
-  </si>
-  <si>
-    <t>Release Pipeline Support - Sprint 10.2 - Team Buzzard-Apes</t>
-  </si>
-  <si>
-    <t>Apes; CSME MVP; Milestone C; PI10; sprint 2</t>
-  </si>
-  <si>
-    <t>Release Pipeline Support - Sprint 10.3 - Team Buzzard-Apes</t>
-  </si>
-  <si>
-    <t>Security Compliance SP 10.2</t>
-  </si>
-  <si>
-    <t>Security Compliance SP 10.3</t>
-  </si>
-  <si>
-    <t>Splitting App service plan</t>
-  </si>
-  <si>
-    <t>Apes; CSME MVP; Milestone C; PI10; Waiting for MS discussion</t>
-  </si>
-  <si>
-    <t>Splitting App service plan - part 2 after merge</t>
-  </si>
-  <si>
     <t>Tags</t>
   </si>
   <si>
     <t>epsui</t>
   </si>
   <si>
-    <t>[Automation] Tableau pipeline adjustments for automation</t>
-  </si>
-  <si>
-    <t>CSME MVP; Milestone C; Monkeys; NotReady</t>
-  </si>
-  <si>
-    <t>[Automation]: Terraform network adjustments</t>
-  </si>
-  <si>
-    <t>CB_APPROVED; CSME MVP; Milestone C; Monkeys; PI10; sprint 1</t>
-  </si>
-  <si>
-    <t>Automation of provisioning subscriptions: Config Adjustments (read/write), configuration design</t>
-  </si>
-  <si>
-    <t>CB_APPROVED; CSME MVP; Milestone C; Monkeys</t>
-  </si>
-  <si>
-    <t>DA adjustments - part 2</t>
-  </si>
-  <si>
-    <t>EPS Adjustments</t>
-  </si>
-  <si>
-    <t>CSME MVP; Milestone C; Monkeys; Performance</t>
-  </si>
-  <si>
-    <t>Integration of SORTT SFTP Uploader into Release Pipeline</t>
-  </si>
-  <si>
-    <t>CLE MVP; Milestone C; Monkeys; Pearl 15 Continuous; PI10; sprint 2</t>
-  </si>
-  <si>
-    <t>Release 1.2 support</t>
-  </si>
-  <si>
-    <t>Milestone C; Monkeys</t>
-  </si>
-  <si>
-    <t>Release Pipeline Support - Sprint 10.2 - Team Buzzard-Monkeys</t>
-  </si>
-  <si>
-    <t>Milestone C; Monkeys; PI10; sprint 2</t>
-  </si>
-  <si>
-    <t>Release Pipeline Support - Sprint 10.3 - Team Buzzard-Monkeys</t>
-  </si>
-  <si>
-    <t>Milestone C; Monkeys; PI10; sprint 3</t>
-  </si>
-  <si>
-    <t>Shared Services integration and lockdown Automation</t>
-  </si>
-  <si>
-    <t>Apes; Blocked; Milestone C; WaitingForFaisal</t>
-  </si>
-  <si>
-    <t>Update "Continuous Integration &amp; Delivery" LLD</t>
-  </si>
-  <si>
-    <t>CSME MVP; Fix2</t>
-  </si>
-  <si>
-    <t>CSME MVP; Milestone C; Monkeys; PI10; sprint 2</t>
-  </si>
-  <si>
-    <t>Apes; CSME MVP; Milestone C; PI10; sprint 3</t>
-  </si>
-  <si>
-    <t>Apes; CSME MVP; Milestone C; PI10; Rework; sprint 2</t>
-  </si>
-  <si>
-    <t>Apes; CSME MVP; Milestone C; PI10; Rework; sprint 3</t>
-  </si>
-  <si>
     <t>Duration</t>
   </si>
   <si>
@@ -268,6 +142,138 @@
   </si>
   <si>
     <t>Percent</t>
+  </si>
+  <si>
+    <t>YAML migrate pipelines - Apes</t>
+  </si>
+  <si>
+    <t>YAML migrate pipelines - Monkeys</t>
+  </si>
+  <si>
+    <t>YAML Scripts - Apes</t>
+  </si>
+  <si>
+    <t>Upgrade tableau autoamted deployment to use 2019.4</t>
+  </si>
+  <si>
+    <t>Release Pipeline Support - Sprint 11.4 - Team Buzzard-Apes</t>
+  </si>
+  <si>
+    <t>Release Pipeline Support - Sprint 11.4 - Team Buzzard-Monkeys</t>
+  </si>
+  <si>
+    <t>[Automation]:  Network adjustments - testing</t>
+  </si>
+  <si>
+    <t>Onboarding Adam Jankowski</t>
+  </si>
+  <si>
+    <t>[F170] Databricks deploy</t>
+  </si>
+  <si>
+    <t>Hardcoded redirectURIs - domain EHM names</t>
+  </si>
+  <si>
+    <t>Migration module release improvements for 1.3</t>
+  </si>
+  <si>
+    <t>Domain names EHM support</t>
+  </si>
+  <si>
+    <t>Mergining with stg1,2 and mig3 branches</t>
+  </si>
+  <si>
+    <t>Fix the issues with tagging</t>
+  </si>
+  <si>
+    <t>Back up and Restore: DWH</t>
+  </si>
+  <si>
+    <t>[Automation] Adjustments for scripts to use new config files - subscription 1</t>
+  </si>
+  <si>
+    <t>Release 1.3 pipeline adjustments and support</t>
+  </si>
+  <si>
+    <t>Automation of provisioning subscriptions: moving away from excel file </t>
+  </si>
+  <si>
+    <t>Automation of provisioning subscriptions: configuration design - subscriptions - part 2</t>
+  </si>
+  <si>
+    <t>Security compliance IP11.2-5 buffer</t>
+  </si>
+  <si>
+    <t>Back up and Restore: Cosmos DB</t>
+  </si>
+  <si>
+    <t>Storing secrets in a proper way within repo</t>
+  </si>
+  <si>
+    <t>Secret validation and Mapping of secrets</t>
+  </si>
+  <si>
+    <t>Clean up of branches, RD, Task Groups etc.</t>
+  </si>
+  <si>
+    <t>Apes; Milestone C; Release 1.3; YAML</t>
+  </si>
+  <si>
+    <t>Milestone C; Monkeys; Release 1.3; YAML</t>
+  </si>
+  <si>
+    <t>Milestone C; Release 1.3</t>
+  </si>
+  <si>
+    <t>Apes; Milestone D; Release 1.4</t>
+  </si>
+  <si>
+    <t>Apes; CSME MVP; Milestone C; PI11; Release 1.3</t>
+  </si>
+  <si>
+    <t>Milestone C; Monkeys; PI11; Release 1.3</t>
+  </si>
+  <si>
+    <t>FTD_v1; Milestone E; Release 1.5; Review</t>
+  </si>
+  <si>
+    <t>Milestone C; Monkeys; Release 1.3</t>
+  </si>
+  <si>
+    <t>Apes; Milestone C; Release 1.3</t>
+  </si>
+  <si>
+    <t>Milestone C; PI11; Release 1.3</t>
+  </si>
+  <si>
+    <t>Milestone D</t>
+  </si>
+  <si>
+    <t>Milestone D; Release 1.4</t>
+  </si>
+  <si>
+    <t>Apes; Milestone C; PI11; Release 1.3; sprint 4</t>
+  </si>
+  <si>
+    <t>CB_APPROVED; CSME MVP; Milestone C; Monkeys; PI11; Release 1.3; sprint 4</t>
+  </si>
+  <si>
+    <t>CB_APPROVED; CSME MVP; Milestone C; Monkeys; PI11; Release 1.3; sprint 5</t>
+  </si>
+  <si>
+    <t>Apes; Milestone C; PI11; Release 1.3; sprint 5</t>
+  </si>
+  <si>
+    <t>Apes; CSME MVP; Milestone C; PI11; Release 1.3; sprint 5</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>dependentOn</t>
+  </si>
+  <si>
+    <t>143087, 143088</t>
   </si>
 </sst>
 </file>
@@ -770,7 +776,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -791,10 +797,10 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4">
-        <v>43750</v>
+        <v>43842</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -832,7 +838,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B6">
         <v>23</v>
@@ -854,20 +860,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="84.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -878,96 +885,105 @@
         <v>3</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="H1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
-        <v>134672</v>
+        <v>143087</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E2" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
-        <v>127248</v>
+        <v>143088</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E3" s="5">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
-        <v>126794</v>
+        <v>143136</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E4" s="5">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
-        <v>135451</v>
+        <v>142138</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E5" s="5">
         <v>5</v>
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
-        <v>136595</v>
+        <v>143077</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>30</v>
@@ -976,354 +992,408 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="E6" s="5">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F6" s="8">
-        <v>43740</v>
+        <v>43837</v>
       </c>
       <c r="G6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
-        <v>135804</v>
+        <v>143078</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="E7" s="5">
+        <v>8</v>
+      </c>
+      <c r="F7" s="8">
+        <v>43837</v>
+      </c>
+      <c r="G7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
-        <v>106727</v>
+        <v>143080</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E8" s="5">
-        <v>8</v>
-      </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F8" s="8">
+        <v>43837</v>
+      </c>
+      <c r="G8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
-        <v>137200</v>
+        <v>143148</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E9" s="5">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
-        <v>136603</v>
+        <v>140669</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="E10" s="5">
         <v>2</v>
       </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F10" s="8">
+        <v>43844</v>
+      </c>
+      <c r="G10">
+        <v>45</v>
+      </c>
+      <c r="H10" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
-        <v>135450</v>
+        <v>141665</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="E11" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>141924</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="5">
+        <v>5</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>142139</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="5">
+        <v>10</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>142141</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="5">
+        <v>5</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>142143</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="5">
         <v>8</v>
       </c>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>136564</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>142372</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="5">
+        <v>5</v>
+      </c>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>138624</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="5">
+        <v>12</v>
+      </c>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>139426</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E18" s="5">
+        <v>10</v>
+      </c>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>138472</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="5">
         <v>13</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <v>137198</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="5">
-        <v>4</v>
-      </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>138286</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
-        <v>137195</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="5">
-        <v>7</v>
-      </c>
-      <c r="F15" s="8">
-        <v>43754</v>
-      </c>
-      <c r="G15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>137056</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="5">
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>139428</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="5">
         <v>8</v>
       </c>
-      <c r="F16" s="8">
-        <v>43754</v>
-      </c>
-      <c r="G16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>138199</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="8">
-        <v>43768</v>
-      </c>
-      <c r="G17">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>138195</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="8">
-        <v>43768</v>
-      </c>
-      <c r="G18">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>137199</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="5">
-        <v>11</v>
-      </c>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
-        <v>138288</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>140663</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
-        <v>136604</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="6"/>
+      <c r="E21" s="5">
+        <v>10</v>
+      </c>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
-        <v>136171</v>
+        <v>142434</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E22" s="5">
         <v>11</v>
       </c>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
-        <v>138221</v>
+        <v>135450</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E23" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
-        <v>69221</v>
+        <v>138621</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E24" s="5">
         <v>8</v>
       </c>
-      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>142435</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>142436</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>142439</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="5">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1362,19 +1432,19 @@
         <v>3</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1464,19 +1534,19 @@
         <v>3</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1566,19 +1636,19 @@
         <v>3</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1668,19 +1738,19 @@
         <v>3</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1748,7 +1818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F35A67-FEEB-7540-BF66-07A7A9D7E75B}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -1765,19 +1835,19 @@
         <v>3</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/excel.xlsx
+++ b/src/data/excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dybapi/PycharmProjects/gfi-vue-gantt-elastic/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A5F1C2-0176-E94A-BDF0-E6C41F095F20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2524B88A-5E18-8940-96CE-94396ABE46E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21200" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teams" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="91">
   <si>
     <t>ID</t>
   </si>
@@ -274,6 +274,36 @@
   </si>
   <si>
     <t>143087, 143088</t>
+  </si>
+  <si>
+    <t>Release Pipeline Support - Sprint 11.5 - Team Buzzard-Apes</t>
+  </si>
+  <si>
+    <t>Release Pipeline Support - Sprint 11.5 - Team Buzzard-Monkeys</t>
+  </si>
+  <si>
+    <t>Release Pipeline Support - Sprint 12.1 - Team Buzzard-Apes</t>
+  </si>
+  <si>
+    <t>Release Pipeline Support - Sprint 12.1 - Team Buzzard-Monkeys</t>
+  </si>
+  <si>
+    <t>Release Pipeline Support - Sprint 12.2 - Team Buzzard-Apes</t>
+  </si>
+  <si>
+    <t>Release Pipeline Support - Sprint 12.2- Team Buzzard-Monkeys</t>
+  </si>
+  <si>
+    <t>Release Pipeline Support - Sprint 12.3- Team Buzzard-Apes</t>
+  </si>
+  <si>
+    <t>Release Pipeline Support - Sprint 12.3 - Team Buzzard-Monkeys</t>
+  </si>
+  <si>
+    <t>Release Pipeline Support - Sprint 12.4 - Team Buzzard-Apes</t>
+  </si>
+  <si>
+    <t>Release Pipeline Support - Sprint 12.4 - Team Buzzard-Monkeys</t>
   </si>
 </sst>
 </file>
@@ -392,7 +422,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -405,6 +435,9 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -775,8 +808,8 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -797,7 +830,7 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C2" s="4">
         <v>43842</v>
@@ -860,10 +893,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J4"/>
+    <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1001,7 +1034,7 @@
         <v>43837</v>
       </c>
       <c r="G6">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1041,7 +1074,7 @@
         <v>66</v>
       </c>
       <c r="E8" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F8" s="8">
         <v>43837</v>
@@ -1084,15 +1117,8 @@
       <c r="E10" s="5">
         <v>2</v>
       </c>
-      <c r="F10" s="8">
-        <v>43844</v>
-      </c>
-      <c r="G10">
-        <v>45</v>
-      </c>
-      <c r="H10" s="5">
-        <v>50</v>
-      </c>
+      <c r="F10" s="8"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
@@ -1201,7 +1227,7 @@
       </c>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>138624</v>
       </c>
@@ -1219,7 +1245,7 @@
       </c>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>139426</v>
       </c>
@@ -1237,7 +1263,7 @@
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>138472</v>
       </c>
@@ -1253,9 +1279,14 @@
       <c r="E19" s="5">
         <v>13</v>
       </c>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F19" s="4">
+        <v>43894</v>
+      </c>
+      <c r="G19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>139428</v>
       </c>
@@ -1273,7 +1304,7 @@
       </c>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>140663</v>
       </c>
@@ -1291,7 +1322,7 @@
       </c>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>142434</v>
       </c>
@@ -1309,7 +1340,7 @@
       </c>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>135450</v>
       </c>
@@ -1327,7 +1358,7 @@
       </c>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>138621</v>
       </c>
@@ -1344,7 +1375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>142435</v>
       </c>
@@ -1361,7 +1392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>142436</v>
       </c>
@@ -1378,7 +1409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>142439</v>
       </c>
@@ -1393,6 +1424,236 @@
       </c>
       <c r="E27" s="5">
         <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>200001</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="5">
+        <v>8</v>
+      </c>
+      <c r="F28" s="8">
+        <v>43851</v>
+      </c>
+      <c r="G28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>200002</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="5">
+        <v>7</v>
+      </c>
+      <c r="F29" s="8">
+        <v>43851</v>
+      </c>
+      <c r="G29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>200003</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="5">
+        <v>8</v>
+      </c>
+      <c r="F30" s="10">
+        <v>43866</v>
+      </c>
+      <c r="G30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>200004</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="5">
+        <v>7</v>
+      </c>
+      <c r="F31" s="10">
+        <v>43866</v>
+      </c>
+      <c r="G31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>200005</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="5">
+        <v>8</v>
+      </c>
+      <c r="F32" s="4">
+        <v>43880</v>
+      </c>
+      <c r="G32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
+        <v>200006</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="5">
+        <v>7</v>
+      </c>
+      <c r="F33" s="4">
+        <v>43880</v>
+      </c>
+      <c r="G33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>200007</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="5">
+        <v>8</v>
+      </c>
+      <c r="F34" s="4">
+        <v>43894</v>
+      </c>
+      <c r="G34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
+        <v>200008</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="5">
+        <v>7</v>
+      </c>
+      <c r="F35" s="4">
+        <v>43894</v>
+      </c>
+      <c r="G35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
+        <v>200009</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="5">
+        <v>8</v>
+      </c>
+      <c r="F36" s="4">
+        <v>43908</v>
+      </c>
+      <c r="G36">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
+        <v>200010</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="5">
+        <v>7</v>
+      </c>
+      <c r="F37" s="4">
+        <v>43908</v>
+      </c>
+      <c r="G37">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/excel.xlsx
+++ b/src/data/excel.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dybapi/PycharmProjects/gfi-vue-gantt-elastic/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2524B88A-5E18-8940-96CE-94396ABE46E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41E394C-E453-E94C-8823-C810E7F18691}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21200" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teams" sheetId="6" r:id="rId1"/>
-    <sheet name="infrastructure" sheetId="1" r:id="rId2"/>
-    <sheet name="bi" sheetId="2" r:id="rId3"/>
-    <sheet name="sm" sheetId="3" r:id="rId4"/>
-    <sheet name="integration" sheetId="4" r:id="rId5"/>
-    <sheet name="epsui" sheetId="5" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
+    <sheet name="systeam" sheetId="7" r:id="rId2"/>
+    <sheet name="infrastructure" sheetId="1" r:id="rId3"/>
+    <sheet name="bi" sheetId="2" r:id="rId4"/>
+    <sheet name="sm" sheetId="3" r:id="rId5"/>
+    <sheet name="integration" sheetId="4" r:id="rId6"/>
+    <sheet name="epsui" sheetId="5" r:id="rId7"/>
+    <sheet name="lmf" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140000"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="99">
   <si>
     <t>ID</t>
   </si>
@@ -304,6 +306,30 @@
   </si>
   <si>
     <t>Release Pipeline Support - Sprint 12.4 - Team Buzzard-Monkeys</t>
+  </si>
+  <si>
+    <t>systeam</t>
+  </si>
+  <si>
+    <t>sys1</t>
+  </si>
+  <si>
+    <t>sys2</t>
+  </si>
+  <si>
+    <t>sys3</t>
+  </si>
+  <si>
+    <t>lmf</t>
+  </si>
+  <si>
+    <t>lmf 1</t>
+  </si>
+  <si>
+    <t>lmf 2</t>
+  </si>
+  <si>
+    <t>lmf 3</t>
   </si>
 </sst>
 </file>
@@ -806,10 +832,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -878,6 +904,28 @@
       </c>
       <c r="C6" s="4">
         <v>43750</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7">
+        <v>28</v>
+      </c>
+      <c r="C7" s="4">
+        <v>43850</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4">
+        <v>43850</v>
       </c>
     </row>
   </sheetData>
@@ -892,6 +940,112 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F35A67-FEEB-7540-BF66-07A7A9D7E75B}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B41" sqref="B40:B41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>123121</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>123124</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>123125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
@@ -1667,7 +1821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -1769,7 +1923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -1871,12 +2025,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A2" sqref="A2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1973,12 +2127,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D41" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2075,15 +2229,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F35A67-FEEB-7540-BF66-07A7A9D7E75B}">
-  <dimension ref="A1:H1"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898DCDDC-731F-674A-91E4-10BD9DC4A347}">
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
@@ -2111,6 +2270,103 @@
         <v>36</v>
       </c>
     </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>30331</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>30332</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>30333</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03816021-39E8-DB49-A703-71D18FF3E9D9}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
